--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -11982,8 +11982,38 @@
       <c r="A283" t="s">
         <v>293</v>
       </c>
+      <c r="B283">
+        <v>172741</v>
+      </c>
+      <c r="C283">
+        <v>3709</v>
+      </c>
+      <c r="D283">
+        <v>-4940</v>
+      </c>
+      <c r="E283">
+        <v>185121</v>
+      </c>
+      <c r="F283">
+        <v>14996</v>
+      </c>
       <c r="G283">
         <v>17648</v>
+      </c>
+      <c r="H283">
+        <v>20162</v>
+      </c>
+      <c r="I283">
+        <v>-6155</v>
+      </c>
+      <c r="J283">
+        <v>-57799</v>
+      </c>
+      <c r="K283">
+        <v>66063</v>
+      </c>
+      <c r="L283">
+        <v>106678</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -11991,7 +12021,7 @@
         <v>294</v>
       </c>
       <c r="G284">
-        <v>14528</v>
+        <v>6939</v>
       </c>
     </row>
   </sheetData>

--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
   <si>
     <t>Serie</t>
   </si>
@@ -899,6 +899,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1256,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L284"/>
+  <dimension ref="A1:L285"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12024,6 +12027,14 @@
         <v>6939</v>
       </c>
     </row>
+    <row r="285" spans="1:12">
+      <c r="A285" t="s">
+        <v>295</v>
+      </c>
+      <c r="G285">
+        <v>13330</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -12023,8 +12023,38 @@
       <c r="A284" t="s">
         <v>294</v>
       </c>
+      <c r="B284">
+        <v>176238</v>
+      </c>
+      <c r="C284">
+        <v>3513</v>
+      </c>
+      <c r="D284">
+        <v>-5828</v>
+      </c>
+      <c r="E284">
+        <v>187551</v>
+      </c>
+      <c r="F284">
+        <v>15874</v>
+      </c>
       <c r="G284">
         <v>6939</v>
+      </c>
+      <c r="H284">
+        <v>27595</v>
+      </c>
+      <c r="I284">
+        <v>3380</v>
+      </c>
+      <c r="J284">
+        <v>-62785</v>
+      </c>
+      <c r="K284">
+        <v>66527</v>
+      </c>
+      <c r="L284">
+        <v>109711</v>
       </c>
     </row>
     <row r="285" spans="1:12">

--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>Serie</t>
   </si>
@@ -902,6 +902,9 @@
   </si>
   <si>
     <t>01-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
   </si>
 </sst>
 </file>
@@ -1259,7 +1262,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L285"/>
+  <dimension ref="A1:L286"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12065,6 +12068,14 @@
         <v>13330</v>
       </c>
     </row>
+    <row r="286" spans="1:12">
+      <c r="A286" t="s">
+        <v>296</v>
+      </c>
+      <c r="G286">
+        <v>8412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -12064,8 +12064,38 @@
       <c r="A285" t="s">
         <v>295</v>
       </c>
+      <c r="B285">
+        <v>176871</v>
+      </c>
+      <c r="C285">
+        <v>4601</v>
+      </c>
+      <c r="D285">
+        <v>-6378</v>
+      </c>
+      <c r="E285">
+        <v>189075</v>
+      </c>
+      <c r="F285">
+        <v>15607</v>
+      </c>
       <c r="G285">
         <v>13330</v>
+      </c>
+      <c r="H285">
+        <v>19567</v>
+      </c>
+      <c r="I285">
+        <v>-4423</v>
+      </c>
+      <c r="J285">
+        <v>-54507</v>
+      </c>
+      <c r="K285">
+        <v>65622</v>
+      </c>
+      <c r="L285">
+        <v>111248</v>
       </c>
     </row>
     <row r="286" spans="1:12">

--- a/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
+++ b/5/5/Activos y pasivos de bancos comerciales y sociedades financieras 1998 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="298">
   <si>
     <t>Serie</t>
   </si>
@@ -905,6 +905,9 @@
   </si>
   <si>
     <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -1262,7 +1265,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L286"/>
+  <dimension ref="A1:L287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -12106,6 +12109,14 @@
         <v>8412</v>
       </c>
     </row>
+    <row r="287" spans="1:12">
+      <c r="A287" t="s">
+        <v>297</v>
+      </c>
+      <c r="G287">
+        <v>7787</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
